--- a/results/simple_lstm_wr.xlsx
+++ b/results/simple_lstm_wr.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.0627269744873</v>
+        <v>17.17107963562012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.24027347564697</v>
+        <v>15.19731521606445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.61271190643311</v>
+        <v>13.53356456756592</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15.05122756958008</v>
+        <v>15.37416076660156</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.32071971893311</v>
+        <v>12.8632698059082</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.34925651550293</v>
+        <v>9.386821746826172</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.68963813781738</v>
+        <v>15.12229824066162</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.64889335632324</v>
+        <v>13.02262020111084</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.36362266540527</v>
+        <v>14.43411254882812</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.34151268005371</v>
+        <v>12.69530200958252</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.8360071182251</v>
+        <v>10.5306453704834</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.75867080688477</v>
+        <v>16.25890159606934</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.95154571533203</v>
+        <v>13.38326454162598</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16.00326728820801</v>
+        <v>15.80540657043457</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.410378456115723</v>
+        <v>6.69951343536377</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.44629669189453</v>
+        <v>15.1397819519043</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.77767562866211</v>
+        <v>11.78364372253418</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.290884017944336</v>
+        <v>6.697131156921387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.46187591552734</v>
+        <v>13.2021484375</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17.48246955871582</v>
+        <v>17.08275032043457</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.24746990203857</v>
+        <v>10.9693717956543</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.685037612915039</v>
+        <v>9.362456321716309</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.74410057067871</v>
+        <v>13.59415435791016</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13.60301685333252</v>
+        <v>12.70459175109863</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12.26688861846924</v>
+        <v>11.04244804382324</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14.29889583587646</v>
+        <v>14.37927627563477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16.22798347473145</v>
+        <v>16.19535827636719</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.077997207641602</v>
+        <v>5.784807682037354</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15.50972366333008</v>
+        <v>13.41194820404053</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15.31829071044922</v>
+        <v>15.60744190216064</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.816516876220703</v>
+        <v>9.534050941467285</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14.75183868408203</v>
+        <v>13.79991722106934</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14.47216033935547</v>
+        <v>13.8466157913208</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.87314224243164</v>
+        <v>12.32371425628662</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.91294288635254</v>
+        <v>10.75186538696289</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12.69584465026855</v>
+        <v>11.82460594177246</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13.5315055847168</v>
+        <v>14.24856185913086</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14.2653112411499</v>
+        <v>13.68686389923096</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15.10969543457031</v>
+        <v>15.3964376449585</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9.216998100280762</v>
+        <v>6.159339904785156</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12.67196464538574</v>
+        <v>12.5297679901123</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14.41965293884277</v>
+        <v>15.58876705169678</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.630607604980469</v>
+        <v>7.762127876281738</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.09373760223389</v>
+        <v>13.42173957824707</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.533649444580078</v>
+        <v>5.596693515777588</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11.43000888824463</v>
+        <v>9.369288444519043</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14.64166641235352</v>
+        <v>15.26960372924805</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11.21040153503418</v>
+        <v>10.4898681640625</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14.51436996459961</v>
+        <v>14.95077323913574</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.085395812988281</v>
+        <v>8.973307609558105</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11.9843225479126</v>
+        <v>13.34719467163086</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.484590530395508</v>
+        <v>5.430972099304199</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.43029594421387</v>
+        <v>13.1511402130127</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.356127738952637</v>
+        <v>6.35259485244751</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.32120418548584</v>
+        <v>7.793489456176758</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.63364315032959</v>
+        <v>13.02792167663574</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.40975379943848</v>
+        <v>7.713008403778076</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14.27451419830322</v>
+        <v>13.58078193664551</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.924907684326172</v>
+        <v>11.99542617797852</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.89805603027344</v>
+        <v>11.32956886291504</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.070347309112549</v>
+        <v>5.690316677093506</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.403411865234375</v>
+        <v>10.16574478149414</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.34213924407959</v>
+        <v>7.747570991516113</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.26008796691895</v>
+        <v>12.22444629669189</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.88210201263428</v>
+        <v>11.56918907165527</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15.70297336578369</v>
+        <v>15.33434772491455</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.641620635986328</v>
+        <v>10.89292907714844</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>15.04839038848877</v>
+        <v>13.65997409820557</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.825329780578613</v>
+        <v>5.892649173736572</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.747756004333496</v>
+        <v>7.432218074798584</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.777682781219482</v>
+        <v>7.190367221832275</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8.274116516113281</v>
+        <v>8.763816833496094</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.098598480224609</v>
+        <v>7.036100387573242</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.853926658630371</v>
+        <v>5.617072582244873</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.24398612976074</v>
+        <v>9.945536613464355</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8.5787353515625</v>
+        <v>8.226432800292969</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.746007919311523</v>
+        <v>8.406967163085938</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>13.32135200500488</v>
+        <v>12.83736991882324</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.873842239379883</v>
+        <v>10.57367324829102</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>15.40926170349121</v>
+        <v>13.08461570739746</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8.030232429504395</v>
+        <v>9.405681610107422</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.560521125793457</v>
+        <v>7.248616218566895</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.05858325958252</v>
+        <v>7.753807067871094</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8.850760459899902</v>
+        <v>8.420805931091309</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6.144612312316895</v>
+        <v>6.234557151794434</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16.08248138427734</v>
+        <v>14.89121723175049</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.482668399810791</v>
+        <v>4.800490379333496</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.792258739471436</v>
+        <v>4.878703117370605</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.139438629150391</v>
+        <v>7.088993549346924</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.426005363464355</v>
+        <v>5.307308673858643</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.05113410949707</v>
+        <v>9.207599639892578</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.999727249145508</v>
+        <v>9.030834197998047</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.596330642700195</v>
+        <v>7.97179126739502</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.737087249755859</v>
+        <v>8.874135971069336</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6.570359230041504</v>
+        <v>5.463315963745117</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.335984230041504</v>
+        <v>10.27052879333496</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.434761047363281</v>
+        <v>7.532556533813477</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.130134582519531</v>
+        <v>9.404313087463379</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.924762725830078</v>
+        <v>6.900280475616455</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.05881404876709</v>
+        <v>4.483958721160889</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.171319961547852</v>
+        <v>8.811946868896484</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.113387107849121</v>
+        <v>8.936110496520996</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5.832340717315674</v>
+        <v>6.180380821228027</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7.513684272766113</v>
+        <v>7.212104797363281</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.168826103210449</v>
+        <v>8.576720237731934</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.59809494018555</v>
+        <v>12.15133380889893</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.97613000869751</v>
+        <v>6.853695392608643</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>7.068402290344238</v>
+        <v>9.199576377868652</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.552411556243896</v>
+        <v>7.965770244598389</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.108016967773438</v>
+        <v>8.963082313537598</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>12.37294006347656</v>
+        <v>11.27808475494385</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7.111141204833984</v>
+        <v>6.957319736480713</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.28284215927124</v>
+        <v>6.42201566696167</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.091342926025391</v>
+        <v>9.91533374786377</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7.319518089294434</v>
+        <v>8.27045726776123</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.38936042785645</v>
+        <v>11.71440315246582</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6.379488945007324</v>
+        <v>6.238632202148438</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8.482354164123535</v>
+        <v>7.999829769134521</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.414311408996582</v>
+        <v>7.950848579406738</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.396876335144043</v>
+        <v>11.25506210327148</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.940940856933594</v>
+        <v>5.51396369934082</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8.351366996765137</v>
+        <v>8.239706039428711</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.763240337371826</v>
+        <v>5.881179809570312</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.907449722290039</v>
+        <v>9.233181953430176</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.655399322509766</v>
+        <v>11.0164737701416</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.518966674804688</v>
+        <v>9.027474403381348</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.545718193054199</v>
+        <v>9.946605682373047</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>11.87989807128906</v>
+        <v>11.42991542816162</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.64994621276855</v>
+        <v>12.20042133331299</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>6.049260139465332</v>
+        <v>6.146923065185547</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>13.08123970031738</v>
+        <v>12.28479385375977</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>11.59562873840332</v>
+        <v>12.28697872161865</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.64785623550415</v>
+        <v>5.789206504821777</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.595681667327881</v>
+        <v>6.625523567199707</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6.234533309936523</v>
+        <v>6.632983684539795</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4.117563247680664</v>
+        <v>5.306547164916992</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.289230823516846</v>
+        <v>7.935101985931396</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5.824872016906738</v>
+        <v>6.693798065185547</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.070970058441162</v>
+        <v>6.492887020111084</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10.18961811065674</v>
+        <v>11.51472854614258</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>7.192459106445312</v>
+        <v>8.014634132385254</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5.351414680480957</v>
+        <v>5.460695743560791</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5.535637378692627</v>
+        <v>6.068204879760742</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4.840485572814941</v>
+        <v>4.989560127258301</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5.314567565917969</v>
+        <v>6.231115818023682</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6.00424861907959</v>
+        <v>5.770842552185059</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.369735717773438</v>
+        <v>6.240758895874023</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.103664875030518</v>
+        <v>5.964332580566406</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.9306321144104</v>
+        <v>6.086320877075195</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8.475088119506836</v>
+        <v>7.841895580291748</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5.810108661651611</v>
+        <v>5.896825313568115</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>7.448447704315186</v>
+        <v>7.546074390411377</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6.131084442138672</v>
+        <v>6.168154716491699</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5.250162124633789</v>
+        <v>5.536439895629883</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5.179008007049561</v>
+        <v>4.561453819274902</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.004397392272949</v>
+        <v>5.881872653961182</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5.926590442657471</v>
+        <v>5.411755561828613</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5.315983295440674</v>
+        <v>5.200304508209229</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>7.232606887817383</v>
+        <v>7.401615142822266</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4.487598419189453</v>
+        <v>4.168601512908936</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4.878874778747559</v>
+        <v>5.50099515914917</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5.437474250793457</v>
+        <v>5.701924800872803</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5.615817070007324</v>
+        <v>5.954318046569824</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4.739199638366699</v>
+        <v>5.303049087524414</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5.135511875152588</v>
+        <v>6.045953750610352</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>5.101123332977295</v>
+        <v>5.690913677215576</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5.679074764251709</v>
+        <v>5.103017807006836</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4.327010631561279</v>
+        <v>4.576823234558105</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
